--- a/natmiOut/OldD0/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.2009727627297</v>
+        <v>37.11928833333334</v>
       </c>
       <c r="H2">
-        <v>12.2009727627297</v>
+        <v>111.357865</v>
       </c>
       <c r="I2">
-        <v>0.03163621737929069</v>
+        <v>0.08973251933053689</v>
       </c>
       <c r="J2">
-        <v>0.03163621737929069</v>
+        <v>0.08973251933053687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.270623562464</v>
+        <v>62.351132</v>
       </c>
       <c r="N2">
-        <v>26.270623562464</v>
+        <v>187.053396</v>
       </c>
       <c r="O2">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="P2">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="Q2">
-        <v>320.5271625455483</v>
+        <v>2314.429646617727</v>
       </c>
       <c r="R2">
-        <v>320.5271625455483</v>
+        <v>20829.86681955954</v>
       </c>
       <c r="S2">
-        <v>0.02912393443986034</v>
+        <v>0.0863227309140957</v>
       </c>
       <c r="T2">
-        <v>0.02912393443986034</v>
+        <v>0.08632273091409569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.2009727627297</v>
+        <v>37.11928833333334</v>
       </c>
       <c r="H3">
-        <v>12.2009727627297</v>
+        <v>111.357865</v>
       </c>
       <c r="I3">
-        <v>0.03163621737929069</v>
+        <v>0.08973251933053689</v>
       </c>
       <c r="J3">
-        <v>0.03163621737929069</v>
+        <v>0.08973251933053687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.709693930540904</v>
+        <v>0.8562703333333334</v>
       </c>
       <c r="N3">
-        <v>0.709693930540904</v>
+        <v>2.568811</v>
       </c>
       <c r="O3">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="P3">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="Q3">
-        <v>8.658956316404154</v>
+        <v>31.78414539427945</v>
       </c>
       <c r="R3">
-        <v>8.658956316404154</v>
+        <v>286.057308548515</v>
       </c>
       <c r="S3">
-        <v>0.0007867753674097209</v>
+        <v>0.001185473161482559</v>
       </c>
       <c r="T3">
-        <v>0.0007867753674097209</v>
+        <v>0.001185473161482559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.2009727627297</v>
+        <v>37.11928833333334</v>
       </c>
       <c r="H4">
-        <v>12.2009727627297</v>
+        <v>111.357865</v>
       </c>
       <c r="I4">
-        <v>0.03163621737929069</v>
+        <v>0.08973251933053689</v>
       </c>
       <c r="J4">
-        <v>0.03163621737929069</v>
+        <v>0.08973251933053687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.55645728335023</v>
+        <v>1.606628666666667</v>
       </c>
       <c r="N4">
-        <v>1.55645728335023</v>
+        <v>4.819886</v>
       </c>
       <c r="O4">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="P4">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="Q4">
-        <v>18.99029292050842</v>
+        <v>59.63691272259889</v>
       </c>
       <c r="R4">
-        <v>18.99029292050842</v>
+        <v>536.7322145033901</v>
       </c>
       <c r="S4">
-        <v>0.00172550757202063</v>
+        <v>0.002224315254958627</v>
       </c>
       <c r="T4">
-        <v>0.00172550757202063</v>
+        <v>0.002224315254958627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>166.750680454061</v>
+        <v>168.3278913333333</v>
       </c>
       <c r="H5">
-        <v>166.750680454061</v>
+        <v>504.983674</v>
       </c>
       <c r="I5">
-        <v>0.4323721458590541</v>
+        <v>0.406917439453518</v>
       </c>
       <c r="J5">
-        <v>0.4323721458590541</v>
+        <v>0.4069174394535179</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.270623562464</v>
+        <v>62.351132</v>
       </c>
       <c r="N5">
-        <v>26.270623562464</v>
+        <v>187.053396</v>
       </c>
       <c r="O5">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="P5">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="Q5">
-        <v>4380.64435499336</v>
+        <v>10495.43457180632</v>
       </c>
       <c r="R5">
-        <v>4380.64435499336</v>
+        <v>94458.9111462569</v>
       </c>
       <c r="S5">
-        <v>0.3980367778691485</v>
+        <v>0.3914547913316533</v>
       </c>
       <c r="T5">
-        <v>0.3980367778691485</v>
+        <v>0.3914547913316532</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>166.750680454061</v>
+        <v>168.3278913333333</v>
       </c>
       <c r="H6">
-        <v>166.750680454061</v>
+        <v>504.983674</v>
       </c>
       <c r="I6">
-        <v>0.4323721458590541</v>
+        <v>0.406917439453518</v>
       </c>
       <c r="J6">
-        <v>0.4323721458590541</v>
+        <v>0.4069174394535179</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.709693930540904</v>
+        <v>0.8562703333333334</v>
       </c>
       <c r="N6">
-        <v>0.709693930540904</v>
+        <v>2.568811</v>
       </c>
       <c r="O6">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="P6">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="Q6">
-        <v>118.3419458318129</v>
+        <v>144.1341796212904</v>
       </c>
       <c r="R6">
-        <v>118.3419458318129</v>
+        <v>1297.207616591614</v>
       </c>
       <c r="S6">
-        <v>0.01075285802463448</v>
+        <v>0.005375862697384311</v>
       </c>
       <c r="T6">
-        <v>0.01075285802463448</v>
+        <v>0.00537586269738431</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>166.750680454061</v>
+        <v>168.3278913333333</v>
       </c>
       <c r="H7">
-        <v>166.750680454061</v>
+        <v>504.983674</v>
       </c>
       <c r="I7">
-        <v>0.4323721458590541</v>
+        <v>0.406917439453518</v>
       </c>
       <c r="J7">
-        <v>0.4323721458590541</v>
+        <v>0.4069174394535179</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.55645728335023</v>
+        <v>1.606628666666667</v>
       </c>
       <c r="N7">
-        <v>1.55645728335023</v>
+        <v>4.819886</v>
       </c>
       <c r="O7">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="P7">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="Q7">
-        <v>259.5403110963301</v>
+        <v>270.4404156156849</v>
       </c>
       <c r="R7">
-        <v>259.5403110963301</v>
+        <v>2433.963740541164</v>
       </c>
       <c r="S7">
-        <v>0.02358250996527113</v>
+        <v>0.01008678542448038</v>
       </c>
       <c r="T7">
-        <v>0.02358250996527113</v>
+        <v>0.01008678542448038</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>206.713061892815</v>
+        <v>208.2187756666666</v>
       </c>
       <c r="H8">
-        <v>206.713061892815</v>
+        <v>624.6563269999999</v>
       </c>
       <c r="I8">
-        <v>0.5359916367616552</v>
+        <v>0.5033500412159452</v>
       </c>
       <c r="J8">
-        <v>0.5359916367616552</v>
+        <v>0.5033500412159452</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.270623562464</v>
+        <v>62.351132</v>
       </c>
       <c r="N8">
-        <v>26.270623562464</v>
+        <v>187.053396</v>
       </c>
       <c r="O8">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="P8">
-        <v>0.9205883905363822</v>
+        <v>0.9620005273240912</v>
       </c>
       <c r="Q8">
-        <v>5430.481034430465</v>
+        <v>12982.67636647072</v>
       </c>
       <c r="R8">
-        <v>5430.481034430465</v>
+        <v>116844.0872982365</v>
       </c>
       <c r="S8">
-        <v>0.4934276782273733</v>
+        <v>0.4842230050783423</v>
       </c>
       <c r="T8">
-        <v>0.4934276782273733</v>
+        <v>0.4842230050783423</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>206.713061892815</v>
+        <v>208.2187756666666</v>
       </c>
       <c r="H9">
-        <v>206.713061892815</v>
+        <v>624.6563269999999</v>
       </c>
       <c r="I9">
-        <v>0.5359916367616552</v>
+        <v>0.5033500412159452</v>
       </c>
       <c r="J9">
-        <v>0.5359916367616552</v>
+        <v>0.5033500412159452</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.709693930540904</v>
+        <v>0.8562703333333334</v>
       </c>
       <c r="N9">
-        <v>0.709693930540904</v>
+        <v>2.568811</v>
       </c>
       <c r="O9">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="P9">
-        <v>0.02486945129934371</v>
+        <v>0.01321118776478095</v>
       </c>
       <c r="Q9">
-        <v>146.703005388857</v>
+        <v>178.2915604463552</v>
       </c>
       <c r="R9">
-        <v>146.703005388857</v>
+        <v>1604.624044017197</v>
       </c>
       <c r="S9">
-        <v>0.01332981790729951</v>
+        <v>0.006649851905914083</v>
       </c>
       <c r="T9">
-        <v>0.01332981790729951</v>
+        <v>0.006649851905914083</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>206.713061892815</v>
+        <v>208.2187756666666</v>
       </c>
       <c r="H10">
-        <v>206.713061892815</v>
+        <v>624.6563269999999</v>
       </c>
       <c r="I10">
-        <v>0.5359916367616552</v>
+        <v>0.5033500412159452</v>
       </c>
       <c r="J10">
-        <v>0.5359916367616552</v>
+        <v>0.5033500412159452</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.55645728335023</v>
+        <v>1.606628666666667</v>
       </c>
       <c r="N10">
-        <v>1.55645728335023</v>
+        <v>4.819886</v>
       </c>
       <c r="O10">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="P10">
-        <v>0.05454215816427412</v>
+        <v>0.02478828491112776</v>
       </c>
       <c r="Q10">
-        <v>321.7400507466988</v>
+        <v>334.5302539243024</v>
       </c>
       <c r="R10">
-        <v>321.7400507466988</v>
+        <v>3010.772285318722</v>
       </c>
       <c r="S10">
-        <v>0.02923414062698236</v>
+        <v>0.01247718423168875</v>
       </c>
       <c r="T10">
-        <v>0.02923414062698236</v>
+        <v>0.01247718423168875</v>
       </c>
     </row>
   </sheetData>
